--- a/statistiche/RandomForestCounterfactuals/NU.xlsx
+++ b/statistiche/RandomForestCounterfactuals/NU.xlsx
@@ -38,12 +38,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FAF5E9"/>
+        <fgColor rgb="00E9ECEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCB"/>
+        <fgColor rgb="00FFF3CD"/>
       </patternFill>
     </fill>
   </fills>
@@ -458,77 +458,77 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Admission IC</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Release B</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Release D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>ER Triage</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Admission IC</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Leucocytes</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ER Sepsis Triage</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IV Antibiotics</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>IV Liquid</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Release A</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>IV Antibiotics</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Leucocytes</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Release B</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>LacticAcid</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CRP</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Release C</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Admission NC</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>ER Registration</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>IV Liquid</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Release C</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>CRP</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>LacticAcid</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ER Sepsis Triage</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Admission NC</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Release D</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -575,7 +575,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2" t="n">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="inlineStr">
         <is>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>0</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="2" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
@@ -755,16 +755,16 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -825,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>0</v>
@@ -834,16 +834,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2" t="n">
         <v>0</v>
@@ -861,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
@@ -889,7 +889,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -898,13 +898,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -925,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -959,7 +959,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="2" t="n">
         <v>1</v>
@@ -995,13 +995,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
@@ -1023,25 +1023,25 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -1053,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1093,7 +1093,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2" t="n">
         <v>1</v>
@@ -1120,22 +1120,22 @@
         <v>0</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
@@ -1157,16 +1157,16 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1227,7 +1227,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>0</v>
@@ -1236,16 +1236,16 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2" t="n">
         <v>1</v>
@@ -1254,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>1</v>
@@ -1324,22 +1324,22 @@
         <v>0</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
@@ -1361,25 +1361,25 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
@@ -1388,22 +1388,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
@@ -1495,10 +1495,10 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>1</v>
@@ -1592,22 +1592,22 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
@@ -1699,7 +1699,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
@@ -1726,22 +1726,22 @@
         <v>0</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
@@ -1769,7 +1769,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>0</v>
@@ -1784,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
@@ -1796,22 +1796,22 @@
         <v>0</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
@@ -1833,7 +1833,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1848,7 +1848,7 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -1860,22 +1860,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         <v>12</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
@@ -1930,22 +1930,22 @@
         <v>0</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
@@ -1967,13 +1967,13 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>2</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
@@ -2003,13 +2003,13 @@
         <v>1</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>2</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="inlineStr">
         <is>
@@ -2037,7 +2037,7 @@
         <v>13</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
@@ -2064,22 +2064,22 @@
         <v>0</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
@@ -2101,10 +2101,10 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2113,37 +2113,37 @@
         <v>1</v>
       </c>
       <c r="G25" t="n">
+        <v>2</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="n">
         <v>3</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>5</v>
-      </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="inlineStr">
         <is>
@@ -2171,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>0</v>
@@ -2186,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
@@ -2198,22 +2198,22 @@
         <v>0</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="2" t="n">
         <v>3</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
@@ -2235,7 +2235,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2250,7 +2250,7 @@
         <v>3</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2259,25 +2259,25 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>3</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>1</v>
@@ -2332,22 +2332,22 @@
         <v>0</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
@@ -2369,7 +2369,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2384,7 +2384,7 @@
         <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>1</v>
@@ -2393,25 +2393,25 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         <v>16</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D30" s="2" t="n">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>4</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
@@ -2466,22 +2466,22 @@
         <v>0</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2" t="n">
         <v>4</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2530,22 +2530,22 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         <v>17</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2" t="n">
         <v>0</v>
@@ -2588,7 +2588,7 @@
         <v>4</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>1</v>
@@ -2600,22 +2600,22 @@
         <v>0</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
@@ -2643,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>0</v>
@@ -2658,7 +2658,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>1</v>
@@ -2670,22 +2670,22 @@
         <v>0</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="2" t="n">
         <v>5</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
@@ -2707,7 +2707,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>5</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2734,22 +2734,22 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="inlineStr">
         <is>
@@ -2777,7 +2777,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>1</v>
@@ -2804,22 +2804,22 @@
         <v>0</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
@@ -2847,13 +2847,13 @@
         <v>20</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>0</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>1</v>
@@ -2862,7 +2862,7 @@
         <v>5</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1</v>
@@ -2871,25 +2871,25 @@
         <v>1</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="2" t="n">
         <v>6</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" s="2" t="n">
         <v>2</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
